--- a/medicine/Hématologie/Microangiopathie_thrombotique/Microangiopathie_thrombotique.xlsx
+++ b/medicine/Hématologie/Microangiopathie_thrombotique/Microangiopathie_thrombotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une microangiopathie thrombotique (MAT) est un processus pathologique (-pathie) caractérisé par la présence de thrombus multiples localisés sur les petits (micro) vaisseaux (angio-).  
 Un thrombus est un amas de plaquettes qui se sont agrégées entre elles grâce au processus de la coagulation impliquant la fibrine et tous les facteurs de la coagulation. Ces derniers sont des protéines circulant dans le sang qui réagissent entre eux en cascade pour aboutir à cet amas de plaquettes. 
@@ -514,22 +526,214 @@
           <t>Étiologies des microangiopathies thrombotiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La MAT est l'expression commune à différentes maladies. Une première distinction, à la fois physiopathologique et clinico-biologique, est faite entre le syndrome hémolytique et urémique et le purpura thrombotique thrombocytopénique. En contexte obstétrical, le syndrome HELLP est une cause de MAT.
-Syndrome hémolytique et urémique (SHU)
-SHU typiques
-Le SHU typique est une toxi-infection alimentaire à Escherichia coli productrice de shigatoxines, le souvent de sérotype O157:H7. 
-SHU atypiques
-Les SHU atypiques résultent d'un déficit inné ou acquis de la voie alterne du complément, d'une mutation de la thrombomoduline ou du gène de la diacylglycérol kinase epsilon (DGKE).
-SHU secondaires
-Le SHU peut être secondaire à une prise de médicaments (ciclosporine, tacrolimus, clopidogrel, gemcitabine, mitomycine C, ...)[1], une infection, une connectivite, une hypertension artérielle maligne.
-Elle peut être aussi conséquence d'un cancer[2].
-SHU métaboliques
-Le déficit en cobolamine C est une cause de SHU.
-Purpura thrombotique thrombocytopénique (PTT)
-Le purpura thrombotique thrombocytopénique (ou maladie de Moschcowitz) est une MAT ayant pour cause un déficit en ADAMTS13. Ce déficit peut être congénital (syndrome de Upshaw-Shulman) ou acquis, de mécanisme auto-immun.
-Syndrome HELLP</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La MAT est l'expression commune à différentes maladies. Une première distinction, à la fois physiopathologique et clinico-biologique, est faite entre le syndrome hémolytique et urémique et le purpura thrombotique thrombocytopénique. En contexte obstétrical, le syndrome HELLP est une cause de MAT.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Étiologies des microangiopathies thrombotiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Syndrome hémolytique et urémique (SHU)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SHU typiques</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SHU typique est une toxi-infection alimentaire à Escherichia coli productrice de shigatoxines, le souvent de sérotype O157:H7. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Étiologies des microangiopathies thrombotiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Syndrome hémolytique et urémique (SHU)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SHU atypiques</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les SHU atypiques résultent d'un déficit inné ou acquis de la voie alterne du complément, d'une mutation de la thrombomoduline ou du gène de la diacylglycérol kinase epsilon (DGKE).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étiologies des microangiopathies thrombotiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Syndrome hémolytique et urémique (SHU)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SHU secondaires</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SHU peut être secondaire à une prise de médicaments (ciclosporine, tacrolimus, clopidogrel, gemcitabine, mitomycine C, ...), une infection, une connectivite, une hypertension artérielle maligne.
+Elle peut être aussi conséquence d'un cancer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étiologies des microangiopathies thrombotiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Syndrome hémolytique et urémique (SHU)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SHU métaboliques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en cobolamine C est une cause de SHU.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microangiopathie_thrombotique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Étiologies des microangiopathies thrombotiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Purpura thrombotique thrombocytopénique (PTT)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le purpura thrombotique thrombocytopénique (ou maladie de Moschcowitz) est une MAT ayant pour cause un déficit en ADAMTS13. Ce déficit peut être congénital (syndrome de Upshaw-Shulman) ou acquis, de mécanisme auto-immun.
+</t>
         </is>
       </c>
     </row>
